--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCE/20/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCE/20/seed2/result_data_KNN.xlsx
@@ -465,7 +465,7 @@
         <v>-20.51</v>
       </c>
       <c r="B2" t="n">
-        <v>5.878</v>
+        <v>5.990999999999999</v>
       </c>
       <c r="C2" t="n">
         <v>-10.94</v>
@@ -474,18 +474,18 @@
         <v>-7.6</v>
       </c>
       <c r="E2" t="n">
-        <v>17.038</v>
+        <v>16.914</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-20.624</v>
+        <v>-21.347</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>-11.526</v>
+        <v>-12.09</v>
       </c>
       <c r="D3" t="n">
         <v>-8.949999999999999</v>
@@ -542,7 +542,7 @@
         <v>-8.08</v>
       </c>
       <c r="E6" t="n">
-        <v>16.652</v>
+        <v>16.864</v>
       </c>
     </row>
     <row r="7">
@@ -638,7 +638,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-12.108</v>
+        <v>-11.536</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-21.508</v>
+        <v>-21.54</v>
       </c>
       <c r="B14" t="n">
         <v>4.04</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.36</v>
+        <v>-21.368</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -737,7 +737,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>4.779999999999999</v>
+        <v>5.626</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -763,7 +763,7 @@
         <v>-7.9</v>
       </c>
       <c r="E19" t="n">
-        <v>16.304</v>
+        <v>16.298</v>
       </c>
     </row>
     <row r="20">
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.458</v>
+        <v>-20.587</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.59</v>
+        <v>-20.686</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -839,27 +839,27 @@
         <v>-20.85</v>
       </c>
       <c r="B24" t="n">
-        <v>5.942</v>
+        <v>5.762</v>
       </c>
       <c r="C24" t="n">
-        <v>-13.116</v>
+        <v>-13.134</v>
       </c>
       <c r="D24" t="n">
         <v>-7.7</v>
       </c>
       <c r="E24" t="n">
-        <v>16.334</v>
+        <v>16.692</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.192</v>
+        <v>-20.761</v>
       </c>
       <c r="B25" t="n">
-        <v>7.046000000000001</v>
+        <v>6.918000000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>-12.73</v>
+        <v>-12.577</v>
       </c>
       <c r="D25" t="n">
         <v>-7.4</v>
@@ -870,7 +870,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.26</v>
+        <v>-21.509</v>
       </c>
       <c r="B26" t="n">
         <v>6.56</v>
@@ -890,7 +890,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>4.86</v>
+        <v>5.546000000000001</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -899,7 +899,7 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>16.906</v>
+        <v>16.716</v>
       </c>
     </row>
     <row r="28">
@@ -921,7 +921,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-20.938</v>
+        <v>-21.104</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -941,7 +941,7 @@
         <v>-21.31</v>
       </c>
       <c r="B30" t="n">
-        <v>5.04</v>
+        <v>6.292</v>
       </c>
       <c r="C30" t="n">
         <v>-10.71</v>
@@ -950,7 +950,7 @@
         <v>-10.18</v>
       </c>
       <c r="E30" t="n">
-        <v>15.512</v>
+        <v>16.139</v>
       </c>
     </row>
     <row r="31">
@@ -958,7 +958,7 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>6.481999999999999</v>
+        <v>5.928</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -967,7 +967,7 @@
         <v>-9.77</v>
       </c>
       <c r="E31" t="n">
-        <v>15.932</v>
+        <v>16.4</v>
       </c>
     </row>
     <row r="32">
@@ -1001,7 +1001,7 @@
         <v>-6.63</v>
       </c>
       <c r="E33" t="n">
-        <v>17.73</v>
+        <v>17.495</v>
       </c>
     </row>
     <row r="34">
@@ -1094,7 +1094,7 @@
         <v>-18.76</v>
       </c>
       <c r="B39" t="n">
-        <v>7.95</v>
+        <v>7.894</v>
       </c>
       <c r="C39" t="n">
         <v>-10.58</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-19.968</v>
+        <v>-20.29</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1131,7 +1131,7 @@
         <v>8.92</v>
       </c>
       <c r="C41" t="n">
-        <v>-11.546</v>
+        <v>-12.61</v>
       </c>
       <c r="D41" t="n">
         <v>-8.720000000000001</v>
@@ -1145,7 +1145,7 @@
         <v>-18.32</v>
       </c>
       <c r="B42" t="n">
-        <v>7.074</v>
+        <v>7.697999999999999</v>
       </c>
       <c r="C42" t="n">
         <v>-13.45</v>
@@ -1154,7 +1154,7 @@
         <v>-7.75</v>
       </c>
       <c r="E42" t="n">
-        <v>16.542</v>
+        <v>16.555</v>
       </c>
     </row>
     <row r="43">
@@ -1247,7 +1247,7 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>5.254</v>
+        <v>5.24</v>
       </c>
       <c r="C48" t="n">
         <v>-10.86</v>
@@ -1284,7 +1284,7 @@
         <v>4.91</v>
       </c>
       <c r="C50" t="n">
-        <v>-12.216</v>
+        <v>-12.962</v>
       </c>
       <c r="D50" t="n">
         <v>-8.029999999999999</v>
@@ -1298,7 +1298,7 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>5.962</v>
+        <v>5.331</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>4.936</v>
+        <v>4.972</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1329,13 +1329,13 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-20.534</v>
+        <v>-21.04</v>
       </c>
       <c r="B53" t="n">
         <v>5.82</v>
       </c>
       <c r="C53" t="n">
-        <v>-12.404</v>
+        <v>-12.269</v>
       </c>
       <c r="D53" t="n">
         <v>-7.23</v>
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>4.544</v>
+        <v>4.609</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1375,7 +1375,7 @@
         <v>-10.06</v>
       </c>
       <c r="E55" t="n">
-        <v>16.78</v>
+        <v>16.499</v>
       </c>
     </row>
     <row r="56">
@@ -1383,10 +1383,10 @@
         <v>-21.95</v>
       </c>
       <c r="B56" t="n">
-        <v>6.336</v>
+        <v>5.717000000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>-12.752</v>
+        <v>-12.728</v>
       </c>
       <c r="D56" t="n">
         <v>-8.92</v>
@@ -1397,13 +1397,13 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-21.656</v>
+        <v>-21.613</v>
       </c>
       <c r="B57" t="n">
-        <v>6.662000000000001</v>
+        <v>5.672</v>
       </c>
       <c r="C57" t="n">
-        <v>-12.982</v>
+        <v>-13.028</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1420,18 +1420,18 @@
         <v>3.7</v>
       </c>
       <c r="C58" t="n">
-        <v>-13.322</v>
+        <v>-13.081</v>
       </c>
       <c r="D58" t="n">
         <v>-7.51</v>
       </c>
       <c r="E58" t="n">
-        <v>16.432</v>
+        <v>16.849</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.118</v>
+        <v>-22.273</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1451,7 +1451,7 @@
         <v>-21.73</v>
       </c>
       <c r="B60" t="n">
-        <v>5.15</v>
+        <v>5.856</v>
       </c>
       <c r="C60" t="n">
         <v>-13.33</v>
@@ -1471,7 +1471,7 @@
         <v>8.33</v>
       </c>
       <c r="C61" t="n">
-        <v>-12.13</v>
+        <v>-13.181</v>
       </c>
       <c r="D61" t="n">
         <v>-7.97</v>
@@ -1505,7 +1505,7 @@
         <v>4.39</v>
       </c>
       <c r="C63" t="n">
-        <v>-11.852</v>
+        <v>-11.849</v>
       </c>
       <c r="D63" t="n">
         <v>-7.14</v>
@@ -1522,7 +1522,7 @@
         <v>4.89</v>
       </c>
       <c r="C64" t="n">
-        <v>-11.938</v>
+        <v>-11.897</v>
       </c>
       <c r="D64" t="n">
         <v>-6.84</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-21.308</v>
+        <v>-21.233</v>
       </c>
       <c r="B65" t="n">
         <v>6.69</v>
@@ -1545,7 +1545,7 @@
         <v>-7.07</v>
       </c>
       <c r="E65" t="n">
-        <v>17.568</v>
+        <v>17.407</v>
       </c>
     </row>
     <row r="66">
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.652</v>
+        <v>-21.462</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1624,13 +1624,13 @@
         <v>4.05</v>
       </c>
       <c r="C70" t="n">
-        <v>-12.208</v>
+        <v>-11.969</v>
       </c>
       <c r="D70" t="n">
         <v>-7.03</v>
       </c>
       <c r="E70" t="n">
-        <v>17.814</v>
+        <v>17.357</v>
       </c>
     </row>
     <row r="71">
@@ -1658,7 +1658,7 @@
         <v>6.81</v>
       </c>
       <c r="C72" t="n">
-        <v>-12.492</v>
+        <v>-11.828</v>
       </c>
       <c r="D72" t="n">
         <v>-7.37</v>
@@ -1672,7 +1672,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>6.372</v>
+        <v>6.383999999999999</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1689,7 +1689,7 @@
         <v>-19.27</v>
       </c>
       <c r="B74" t="n">
-        <v>6.124000000000001</v>
+        <v>7.575</v>
       </c>
       <c r="C74" t="n">
         <v>-12.97</v>
@@ -1698,7 +1698,7 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E74" t="n">
-        <v>16.516</v>
+        <v>16.467</v>
       </c>
     </row>
     <row r="75">
@@ -1715,7 +1715,7 @@
         <v>-7.62</v>
       </c>
       <c r="E75" t="n">
-        <v>17.12</v>
+        <v>16.936</v>
       </c>
     </row>
     <row r="76">
@@ -1771,7 +1771,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-21.426</v>
+        <v>-21.22</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-20.534</v>
+        <v>-21.14</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1851,7 +1851,7 @@
         <v>-7.67</v>
       </c>
       <c r="E83" t="n">
-        <v>16.622</v>
+        <v>16.985</v>
       </c>
     </row>
     <row r="84">
@@ -1868,7 +1868,7 @@
         <v>-8.34</v>
       </c>
       <c r="E84" t="n">
-        <v>16.616</v>
+        <v>16.438</v>
       </c>
     </row>
     <row r="85">
@@ -1896,13 +1896,13 @@
         <v>4.69</v>
       </c>
       <c r="C86" t="n">
-        <v>-13.206</v>
+        <v>-13.406</v>
       </c>
       <c r="D86" t="n">
         <v>-8.17</v>
       </c>
       <c r="E86" t="n">
-        <v>16.454</v>
+        <v>16.583</v>
       </c>
     </row>
     <row r="87">
@@ -1944,10 +1944,10 @@
         <v>-21.45</v>
       </c>
       <c r="B89" t="n">
-        <v>6.12</v>
+        <v>5.575</v>
       </c>
       <c r="C89" t="n">
-        <v>-13.162</v>
+        <v>-12.225</v>
       </c>
       <c r="D89" t="n">
         <v>-7</v>
@@ -1961,7 +1961,7 @@
         <v>-21.82</v>
       </c>
       <c r="B90" t="n">
-        <v>5.552</v>
+        <v>5.906999999999999</v>
       </c>
       <c r="C90" t="n">
         <v>-12.06</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.516</v>
+        <v>-21.53</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
@@ -1995,7 +1995,7 @@
         <v>-21.6</v>
       </c>
       <c r="B92" t="n">
-        <v>5.414000000000001</v>
+        <v>6.027</v>
       </c>
       <c r="C92" t="n">
         <v>-9.49</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.9</v>
+        <v>-21.324</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2072,7 +2072,7 @@
         <v>-8.529999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>15.592</v>
+        <v>16.303</v>
       </c>
     </row>
     <row r="97">
@@ -2089,7 +2089,7 @@
         <v>-7.59</v>
       </c>
       <c r="E97" t="n">
-        <v>16.986</v>
+        <v>17.228</v>
       </c>
     </row>
     <row r="98">
@@ -2100,7 +2100,7 @@
         <v>4.73</v>
       </c>
       <c r="C98" t="n">
-        <v>-12.696</v>
+        <v>-12.563</v>
       </c>
       <c r="D98" t="n">
         <v>-9.33</v>
@@ -2128,13 +2128,13 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-20.416</v>
+        <v>-21.291</v>
       </c>
       <c r="B100" t="n">
         <v>5.09</v>
       </c>
       <c r="C100" t="n">
-        <v>-13.17</v>
+        <v>-13.01</v>
       </c>
       <c r="D100" t="n">
         <v>-7.71</v>
@@ -2168,7 +2168,7 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-13.172</v>
+        <v>-13.237</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
